--- a/lfd_package/results/miami_fl/miami_fl_results.xlsx
+++ b/lfd_package/results/miami_fl/miami_fl_results.xlsx
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440.19</v>
+        <v>413.13</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-1096795.83</v>
+        <v>-989969.67</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>-19770.53</v>
+        <v>-19726.16</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>-1057891.51</v>
+        <v>-1061202</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>-3538703.21</v>
+        <v>-3083621.63</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.85</v>
+        <v>98.47</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>317295.05</v>
+        <v>287017.77</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>15244.17</v>
+        <v>15209.64</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>284611.75</v>
+        <v>284915.98</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>440189.6</v>
+        <v>413128.48</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.917</v>
+        <v>43.269</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-779500.78</v>
+        <v>-702951.9</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>-4526.37</v>
+        <v>-4516.53</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>-773279.76</v>
+        <v>-776286.02</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>-3098513.61</v>
+        <v>-2670493.16</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.652</v>
+        <v>65.117</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.59</v>
+        <v>35.34</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>152.976</v>
+        <v>17.303</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>90.65000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>90.65000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>64.096</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>90.65000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>112.85</v>
+        <v>98.47</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>90.65000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>317295.05</v>
+        <v>287017.77</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>15244.17</v>
+        <v>15209.64</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>284611.75</v>
+        <v>284915.98</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>440189.6</v>
+        <v>413128.48</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -966,16 +966,16 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1214.46</v>
+        <v>1146.33</v>
       </c>
       <c r="M14" t="n">
-        <v>415.83</v>
+        <v>423.93</v>
       </c>
       <c r="N14" t="n">
-        <v>1176.09</v>
+        <v>1108.05</v>
       </c>
       <c r="O14" t="n">
-        <v>498.1</v>
+        <v>429.22</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122894.55</v>
+        <v>126110.71</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>424945.44</v>
+        <v>397918.84</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>155577.85</v>
+        <v>128212.5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>8021.23</v>
+        <v>7944.79</v>
       </c>
       <c r="M15" t="n">
-        <v>33345.08</v>
+        <v>30802.14</v>
       </c>
       <c r="N15" t="n">
-        <v>8477.709999999999</v>
+        <v>8400.25</v>
       </c>
       <c r="O15" t="n">
         <v>32446.82</v>
       </c>
       <c r="P15" t="n">
-        <v>89726.12</v>
+        <v>79142.33</v>
       </c>
     </row>
     <row r="16">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>21988.25</v>
+        <v>21684.02</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>548401.74</v>
+        <v>449447.89</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>140184.11</v>
+        <v>122049.98</v>
       </c>
       <c r="N16" t="n">
         <v>7222.1</v>
@@ -1090,7 +1090,7 @@
         <v>120866.9</v>
       </c>
       <c r="P16" t="n">
-        <v>389719.41</v>
+        <v>340042.18</v>
       </c>
     </row>
     <row r="17">
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>594008.0600000001</v>
+        <v>537325.96</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>29383.51</v>
+        <v>29316.95</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1850741.85</v>
+        <v>1614829.22</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1142,16 +1142,16 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>9518.85</v>
+        <v>8610.530000000001</v>
       </c>
       <c r="N17" t="n">
-        <v>457.32</v>
+        <v>456.29</v>
       </c>
       <c r="O17" t="n">
         <v>9198</v>
       </c>
       <c r="P17" t="n">
-        <v>29657.74</v>
+        <v>25877.29</v>
       </c>
     </row>
     <row r="18">
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.62</v>
+        <v>17.3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1169,7 +1169,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2652.33</v>
+        <v>2686.09</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>72.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>3206.38</v>
+        <v>362.68</v>
       </c>
       <c r="N18" t="n">
         <v>463.58</v>
       </c>
       <c r="O18" t="n">
-        <v>1343.44</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17372</v>
+        <v>14788.6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>5079.04</v>
+        <v>5057.65</v>
       </c>
       <c r="P20" t="n">
-        <v>47574.38</v>
+        <v>39604.92</v>
       </c>
     </row>
     <row r="21">
@@ -1337,16 +1337,16 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>-4.21</v>
+        <v>-3.98</v>
       </c>
       <c r="N21" t="n">
-        <v>-8.779999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="O21" t="n">
-        <v>-4.39</v>
+        <v>-4.33</v>
       </c>
       <c r="P21" t="n">
-        <v>-6.23</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="22">
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.08</v>
+        <v>69.47</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3.46</v>
+        <v>3.68</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>64.66</v>
+        <v>68.97</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1398,16 +1398,16 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>-2.63</v>
+        <v>-2.49</v>
       </c>
       <c r="N22" t="n">
-        <v>-5.49</v>
+        <v>-5.5</v>
       </c>
       <c r="O22" t="n">
-        <v>-2.74</v>
+        <v>-2.71</v>
       </c>
       <c r="P22" t="n">
-        <v>-3.89</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="23">
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>27.92</v>
+        <v>30.53</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>96.54000000000001</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>35.34</v>
+        <v>31.03</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1293.65</v>
+        <v>1241.83</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>63.99</v>
+        <v>67.76000000000001</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1250.04</v>
+        <v>1326.55</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4030.6</v>
+        <v>3732.08</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.49</v>
+        <v>0.04</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5.78</v>
+        <v>6.21</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37.83</v>
+        <v>34.18</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>

--- a/lfd_package/results/miami_fl/miami_fl_results.xlsx
+++ b/lfd_package/results/miami_fl/miami_fl_results.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="miami_fl" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pre1980_florida_miami.csv" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,11 +1050,9 @@
       <c r="B16" t="n">
         <v>0</v>
       </c>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>21684.02</v>
       </c>
@@ -1563,6 +1562,1684 @@
       <c r="I26" t="inlineStr">
         <is>
           <t>%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Variable Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ELF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TLF</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PP PES</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PP Peak</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Annual Electrical Demand</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>413.13</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>megawatt_hour</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Peak Electrical Demand</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Annual Thermal Demand</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>43.269</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>megawatt_hour</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Peak Thermal Demand</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>65.117</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHP Size</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>35.34</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>35</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>98.47</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TES Size</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>22.117</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aux Boiler Size</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>65.12</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>65.12</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>65.12</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>65.12</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CHP Electrical Energy Generation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>287017.77</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>15209.64</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>284915.98</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>413128.48</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Electrical Energy Bought</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>126110.71</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>397918.84</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>128212.5</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Electrical Energy Sold</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>21684.02</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>449447.89</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CHP Thermal Energy Generation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>537325.96</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>29316.95</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>573985.86</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1614829.22</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TES Thermal Energy Dispatched</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2686.09</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Boiler Thermal Energy Generation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>14788.6</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CHP Electrical Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>69.47</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>68.97</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Electricity Bought Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>96.31999999999999</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CHP Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1241.83</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>67.76000000000001</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>1326.55</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>3732.08</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TES Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Boiler Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Thermal Energy Savings</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>-989991.3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-19726.16</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>-1061202</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>-3083621.63</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electrical Energy Savings</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>287017.77</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>15209.64</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>284915.98</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>413128.48</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Total Energy Savings</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-702973.53</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>-4516.53</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>-776286.02</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>-2670493.16</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Electricity Cost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1146.33</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>423.93</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1108.05</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>429.22</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fuel Cost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>7944.79</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>30802.64</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>8400.25</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>32446.82</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>79142.33</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CHP Installed Cost</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>122049.98</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>7222.1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>120866.9</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>340042.18</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CHP O&amp;M Cost</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>8610.530000000001</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>456.29</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>9198</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>25877.29</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TES Installed Cost</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>463.58</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TES O&amp;M Cost</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PP Revenue</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>5057.65</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>39604.92</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Simple Payback [Yrs]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>-3.97</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>-4.33</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>-6.04</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Simple Payback (37.5% incentive)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>-2.48</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>-2.71</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>-3.77</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>165</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>101</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>161</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>106</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>154</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
         </is>
       </c>
     </row>

--- a/lfd_package/results/miami_fl/miami_fl_results.xlsx
+++ b/lfd_package/results/miami_fl/miami_fl_results.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="miami_fl" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="pre1980_florida_miami.csv" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="post1980_Miami_FL.csv" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2135,11 +2136,9 @@
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>21684.02</v>
       </c>
@@ -3238,6 +3237,1426 @@
         <v>154</v>
       </c>
       <c r="L32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Variable Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ELF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TLF</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PP Peak</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Annual Electrical Demand</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>440189.6</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Peak Electrical Demand</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>112.85</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Annual Thermal Demand</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>45917.319</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Peak Thermal Demand</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>90.652</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CHP Size</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>112.85</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TES Size</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>22.117</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aux Boiler Size</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>90.65000000000001</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>90.65000000000001</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>90.65000000000001</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>kilowatt</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CHP Electrical Energy Generation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>317295.05</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>15244.17</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>719324.34</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Electrical Energy Bought</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>122894.55</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>424945.44</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>61560.76</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Electrical Energy Sold</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>340695.49</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CHP Thermal Energy Generation</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>594008.0600000001</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>29383.51</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1346647.09</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TES Thermal Energy Dispatched</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>83.48999999999999</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2652.33</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Boiler Thermal Energy Generation</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>140.13</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>17372</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>15845.69</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CHP Electrical Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>72.08</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>163.41</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Electricity Bought Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>96.54000000000001</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CHP Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1293.65</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>63.99</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>2932.77</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TES Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Boiler Thermal Pct Coverage</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Thermal Energy Savings</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>-1096970.98</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>-19770.53</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>-2579024.68</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Electrical Energy Savings</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>793237.63</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>38110.42</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>946572.12</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Total Energy Savings</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>-303733.36</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>18339.88</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>-1632452.57</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>kilowatt_hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Electricity Cost</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>38976.36</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>13420.44</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>37748.61</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>7986.43</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fuel Cost</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>8237.23</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>33565.12</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>8693.709999999999</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>67784.16</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CHP Installed Cost</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>140184.11</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>7222.1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>389719.41</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CHP O&amp;M Cost</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>9518.85</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>457.32</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>21579.73</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TES Installed Cost</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>528.77</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>463.58</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TES O&amp;M Cost</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PP Revenue</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>27323.98</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Simple Payback [Yrs]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>-15.15</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>24.48</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>-17.08</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Simple Payback (37.5% incentive)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>-9.470000000000001</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>-10.68</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>dimensionless</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>176</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>105</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>172</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>metric_ton</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>154</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>metric_ton</t>
         </is>
